--- a/Document/更新日记/策划/【Titan】脚本更新记录_冼云烽.xlsx
+++ b/Document/更新日记/策划/【Titan】脚本更新记录_冼云烽.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="9930"/>
+    <workbookView windowWidth="20880" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>更新日期</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Buff.csv Buff.xml Effect.csv Effect.bin Spell.bin Spell.csv</t>
+  </si>
+  <si>
+    <t>修复尸鬼剧毒寄生大招附体后还可以使用E技能与普攻问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect.csv Effect.bin Spell.csv Spell.bin </t>
   </si>
 </sst>
 </file>
@@ -200,11 +206,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -233,8 +239,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,7 +249,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,26 +291,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -291,49 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,10 +344,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,15 +368,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,12 +405,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,7 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +435,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,31 +495,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,79 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +638,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -651,7 +683,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,22 +692,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,164 +705,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1252,7 @@
   <dimension ref="A1:Q186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1309,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="12" t="str">
-        <f t="shared" ref="H2:H13" si="0">CONCATENATE(F2,"","【",E2,"】[",G2,"]:",C2,"。(修改文件:",D2,")")</f>
+        <f t="shared" ref="H2:H14" si="0">CONCATENATE(F2,"","【",E2,"】[",G2,"]:",C2,"。(修改文件:",D2,")")</f>
         <v>冼云烽【全版本】[内部知晓]:修改个别英雄预制体生物高度（李寻欢，龙猫，小鹿，兽宝，虫子）。(修改文件:Chongzi.prefab Lixunhuan.prefab longmaoluoli.prefab senlinvwang.prefab Shouwangda.prefab shouwangxiao.prefab)</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -1589,7 +1595,7 @@
         <v>冼云烽【全版本】[内部知晓]:调整英雄的名字，血量条高度（索罗斯，机器人，艾丽娅，绿先知，红毒蛇，狼灵，尸鬼，男巫，狙击手，青蛙，异鬼，炸弹人，摩托）。(修改文件:Ailiya.prefab bulan_ren.prefab caomeiailiya.prefab feiyapuli.prefab Hongdushe.prefab jiqiren_skin_001.prefab jujishou.prefab miersuoluosi.prefab motuo.prefab qingwa.prefab shigui.prefab Sishen.prefab yigui.prefab zhadan.prefab Zhengqijiqiren.prefab )</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="48" spans="1:8">
+    <row r="13" s="1" customFormat="1" spans="1:8">
       <c r="A13" s="9">
         <v>43089</v>
       </c>
@@ -1616,10 +1622,32 @@
         <v>冼云烽【全版本】[内部知晓]:修复李小龙9级天赋飞跃距离。(修改文件:Buff.csv Buff.xml Effect.csv Effect.bin Spell.bin Spell.csv)</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+    <row r="14" s="1" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A14" s="9">
+        <v>43090</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>冼云烽【全版本】[内部知晓]:修复尸鬼剧毒寄生大招附体后还可以使用E技能与普攻问题。(修改文件:Effect.csv Effect.bin Spell.csv Spell.bin )</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:8">
       <c r="A15" s="9"/>
@@ -3102,10 +3130,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 JC1 SY1 ACU1 AMQ1 AWM1 BGI1 BQE1 CAA1 CJW1 CTS1 DDO1 DNK1 DXG1 EHC1 EQY1 FAU1 FKQ1 FUM1 GEI1 GOE1 GYA1 HHW1 HRS1 IBO1 ILK1 IVG1 JFC1 JOY1 JYU1 KIQ1 KSM1 LCI1 LME1 LWA1 MFW1 MPS1 MZO1 NJK1 NTG1 ODC1 OMY1 OWU1 PGQ1 PQM1 QAI1 QKE1 QUA1 RDW1 RNS1 RXO1 SHK1 SRG1 TBC1 TKY1 TUU1 UEQ1 UOM1 UYI1 VIE1 VSA1 WBW1 WLS1 WVO1">
       <formula1>"内部知晓,新增,修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14:E186 JA2:JA34 SW2:SW34 ACS2:ACS34 AMO2:AMO34 AWK2:AWK34 BGG2:BGG34 BQC2:BQC34 BZY2:BZY34 CJU2:CJU34 CTQ2:CTQ34 DDM2:DDM34 DNI2:DNI34 DXE2:DXE34 EHA2:EHA34 EQW2:EQW34 FAS2:FAS34 FKO2:FKO34 FUK2:FUK34 GEG2:GEG34 GOC2:GOC34 GXY2:GXY34 HHU2:HHU34 HRQ2:HRQ34 IBM2:IBM34 ILI2:ILI34 IVE2:IVE34 JFA2:JFA34 JOW2:JOW34 JYS2:JYS34 KIO2:KIO34 KSK2:KSK34 LCG2:LCG34 LMC2:LMC34 LVY2:LVY34 MFU2:MFU34 MPQ2:MPQ34 MZM2:MZM34 NJI2:NJI34 NTE2:NTE34 ODA2:ODA34 OMW2:OMW34 OWS2:OWS34 PGO2:PGO34 PQK2:PQK34 QAG2:QAG34 QKC2:QKC34 QTY2:QTY34 RDU2:RDU34 RNQ2:RNQ34 RXM2:RXM34 SHI2:SHI34 SRE2:SRE34 TBA2:TBA34 TKW2:TKW34 TUS2:TUS34 UEO2:UEO34 UOK2:UOK34 UYG2:UYG34 VIC2:VIC34 VRY2:VRY34 WBU2:WBU34 WLQ2:WLQ34 WVM2:WVM34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15:E186 JA2:JA34 SW2:SW34 ACS2:ACS34 AMO2:AMO34 AWK2:AWK34 BGG2:BGG34 BQC2:BQC34 BZY2:BZY34 CJU2:CJU34 CTQ2:CTQ34 DDM2:DDM34 DNI2:DNI34 DXE2:DXE34 EHA2:EHA34 EQW2:EQW34 FAS2:FAS34 FKO2:FKO34 FUK2:FUK34 GEG2:GEG34 GOC2:GOC34 GXY2:GXY34 HHU2:HHU34 HRQ2:HRQ34 IBM2:IBM34 ILI2:ILI34 IVE2:IVE34 JFA2:JFA34 JOW2:JOW34 JYS2:JYS34 KIO2:KIO34 KSK2:KSK34 LCG2:LCG34 LMC2:LMC34 LVY2:LVY34 MFU2:MFU34 MPQ2:MPQ34 MZM2:MZM34 NJI2:NJI34 NTE2:NTE34 ODA2:ODA34 OMW2:OMW34 OWS2:OWS34 PGO2:PGO34 PQK2:PQK34 QAG2:QAG34 QKC2:QKC34 QTY2:QTY34 RDU2:RDU34 RNQ2:RNQ34 RXM2:RXM34 SHI2:SHI34 SRE2:SRE34 TBA2:TBA34 TKW2:TKW34 TUS2:TUS34 UEO2:UEO34 UOK2:UOK34 UYG2:UYG34 VIC2:VIC34 VRY2:VRY34 WBU2:WBU34 WLQ2:WLQ34 WVM2:WVM34">
       <formula1>$O$2:$O$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14:G186 JC2:JC34 SY2:SY34 ACU2:ACU34 AMQ2:AMQ34 AWM2:AWM34 BGI2:BGI34 BQE2:BQE34 CAA2:CAA34 CJW2:CJW34 CTS2:CTS34 DDO2:DDO34 DNK2:DNK34 DXG2:DXG34 EHC2:EHC34 EQY2:EQY34 FAU2:FAU34 FKQ2:FKQ34 FUM2:FUM34 GEI2:GEI34 GOE2:GOE34 GYA2:GYA34 HHW2:HHW34 HRS2:HRS34 IBO2:IBO34 ILK2:ILK34 IVG2:IVG34 JFC2:JFC34 JOY2:JOY34 JYU2:JYU34 KIQ2:KIQ34 KSM2:KSM34 LCI2:LCI34 LME2:LME34 LWA2:LWA34 MFW2:MFW34 MPS2:MPS34 MZO2:MZO34 NJK2:NJK34 NTG2:NTG34 ODC2:ODC34 OMY2:OMY34 OWU2:OWU34 PGQ2:PGQ34 PQM2:PQM34 QAI2:QAI34 QKE2:QKE34 QUA2:QUA34 RDW2:RDW34 RNS2:RNS34 RXO2:RXO34 SHK2:SHK34 SRG2:SRG34 TBC2:TBC34 TKY2:TKY34 TUU2:TUU34 UEQ2:UEQ34 UOM2:UOM34 UYI2:UYI34 VIE2:VIE34 VSA2:VSA34 WBW2:WBW34 WLS2:WLS34 WVO2:WVO34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15:G186 JC2:JC34 SY2:SY34 ACU2:ACU34 AMQ2:AMQ34 AWM2:AWM34 BGI2:BGI34 BQE2:BQE34 CAA2:CAA34 CJW2:CJW34 CTS2:CTS34 DDO2:DDO34 DNK2:DNK34 DXG2:DXG34 EHC2:EHC34 EQY2:EQY34 FAU2:FAU34 FKQ2:FKQ34 FUM2:FUM34 GEI2:GEI34 GOE2:GOE34 GYA2:GYA34 HHW2:HHW34 HRS2:HRS34 IBO2:IBO34 ILK2:ILK34 IVG2:IVG34 JFC2:JFC34 JOY2:JOY34 JYU2:JYU34 KIQ2:KIQ34 KSM2:KSM34 LCI2:LCI34 LME2:LME34 LWA2:LWA34 MFW2:MFW34 MPS2:MPS34 MZO2:MZO34 NJK2:NJK34 NTG2:NTG34 ODC2:ODC34 OMY2:OMY34 OWU2:OWU34 PGQ2:PGQ34 PQM2:PQM34 QAI2:QAI34 QKE2:QKE34 QUA2:QUA34 RDW2:RDW34 RNS2:RNS34 RXO2:RXO34 SHK2:SHK34 SRG2:SRG34 TBC2:TBC34 TKY2:TKY34 TUU2:TUU34 UEQ2:UEQ34 UOM2:UOM34 UYI2:UYI34 VIE2:VIE34 VSA2:VSA34 WBW2:WBW34 WLS2:WLS34 WVO2:WVO34">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
   </dataValidations>
